--- a/publication/analyses/outputs/rmse_z/gdptlab_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_bin-r_rmse-z.xlsx
@@ -570,25 +570,25 @@
         <v>118.1464129467272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2449746146373643</v>
+        <v>0.244975581279054</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9098846809385285</v>
+        <v>-0.9098847354457139</v>
       </c>
       <c r="I2" t="n">
-        <v>1.510053348637084</v>
+        <v>1.510053405509842</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0028714291090144</v>
+        <v>-0.00287142943004375</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01434287781422611</v>
+        <v>0.01434287799151507</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4896194774660385</v>
+        <v>0.4896194774897372</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2678128101870564</v>
+        <v>-0.2678128093423752</v>
       </c>
       <c r="N2" t="n">
         <v>52.82422802850356</v>
@@ -612,13 +612,13 @@
         <v>2.022554366143687</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.2449746146373643</v>
+        <v>-0.244975581279054</v>
       </c>
       <c r="V2" t="n">
         <v>118.1464129467272</v>
       </c>
       <c r="W2" t="n">
-        <v>1.788546353304394</v>
+        <v>1.788546406779797</v>
       </c>
       <c r="X2" t="n">
         <v>421</v>
@@ -644,25 +644,25 @@
         <v>227.6070464960621</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.791570354252056</v>
+        <v>-1.791569677468799</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9849527397276584</v>
+        <v>-0.9849529887355458</v>
       </c>
       <c r="I3" t="n">
-        <v>1.609449716177011</v>
+        <v>1.609449805974866</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01900866025463758</v>
+        <v>-0.01900866053909049</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.008720365617362192</v>
+        <v>-0.008720365744904679</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5024961244391694</v>
+        <v>0.5024961244170595</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05552793797322319</v>
+        <v>-0.05552793800956703</v>
       </c>
       <c r="N3" t="n">
         <v>49.09750566893424</v>
@@ -686,13 +686,13 @@
         <v>2.00303759165813</v>
       </c>
       <c r="U3" t="n">
-        <v>1.791570354252056</v>
+        <v>1.791569677468799</v>
       </c>
       <c r="V3" t="n">
         <v>227.6070464960621</v>
       </c>
       <c r="W3" t="n">
-        <v>1.943888267741791</v>
+        <v>1.9438884412348</v>
       </c>
       <c r="X3" t="n">
         <v>882</v>
@@ -718,25 +718,25 @@
         <v>349.7544282031236</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.74986921012566</v>
+        <v>-3.749868662676343</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.208727459519395</v>
+        <v>-1.20872782298752</v>
       </c>
       <c r="I4" t="n">
-        <v>1.952223160887489</v>
+        <v>1.952223244906497</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.00577043441079653</v>
+        <v>-0.005770434234611398</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03224295809111386</v>
+        <v>-0.0322429580329103</v>
       </c>
       <c r="L4" t="n">
-        <v>0.479390405293985</v>
+        <v>0.4793904058431832</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02738614330263275</v>
+        <v>0.02738614312529752</v>
       </c>
       <c r="N4" t="n">
         <v>45.57201646090535</v>
@@ -760,13 +760,13 @@
         <v>2.050100256992208</v>
       </c>
       <c r="U4" t="n">
-        <v>3.74986921012566</v>
+        <v>3.749868662676343</v>
       </c>
       <c r="V4" t="n">
         <v>349.7544282031236</v>
       </c>
       <c r="W4" t="n">
-        <v>2.366232752964366</v>
+        <v>2.366232987399303</v>
       </c>
       <c r="X4" t="n">
         <v>972</v>
@@ -792,25 +792,25 @@
         <v>451.0693662840987</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.34355480360323</v>
+        <v>-6.343554795312453</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.223444729017504</v>
+        <v>-1.223445649704762</v>
       </c>
       <c r="I5" t="n">
-        <v>1.996049466639733</v>
+        <v>1.996049954416544</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1102005016750992</v>
+        <v>-0.1102005004498754</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.07832623744662372</v>
+        <v>-0.07832623755942014</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5039123777664652</v>
+        <v>0.5039123771897682</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4192870827288455</v>
+        <v>0.4192870813504559</v>
       </c>
       <c r="N5" t="n">
         <v>29.23913043478261</v>
@@ -834,13 +834,13 @@
         <v>2.164959633978539</v>
       </c>
       <c r="U5" t="n">
-        <v>6.34355480360323</v>
+        <v>6.343554795312453</v>
       </c>
       <c r="V5" t="n">
         <v>451.0693662840987</v>
       </c>
       <c r="W5" t="n">
-        <v>2.416394114617536</v>
+        <v>2.4163950329765</v>
       </c>
       <c r="X5" t="n">
         <v>230</v>

--- a/publication/analyses/outputs/rmse_z/gdptlab_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_bin-r_rmse-z.xlsx
@@ -570,25 +570,25 @@
         <v>118.1464129467272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.244975581279054</v>
+        <v>0.2449750721256346</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9098847354457139</v>
+        <v>-0.9098845357534516</v>
       </c>
       <c r="I2" t="n">
-        <v>1.510053405509842</v>
+        <v>1.510053163226599</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00287142943004375</v>
+        <v>-0.002871429302431493</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01434287799151507</v>
+        <v>0.01434287801172066</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4896194774897372</v>
+        <v>0.4896194776029297</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2678128093423752</v>
+        <v>-0.2678128100029006</v>
       </c>
       <c r="N2" t="n">
         <v>52.82422802850356</v>
@@ -612,13 +612,13 @@
         <v>2.022554366143687</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.244975581279054</v>
+        <v>-0.2449750721256346</v>
       </c>
       <c r="V2" t="n">
         <v>118.1464129467272</v>
       </c>
       <c r="W2" t="n">
-        <v>1.788546406779797</v>
+        <v>1.788546241863277</v>
       </c>
       <c r="X2" t="n">
         <v>421</v>
@@ -644,25 +644,25 @@
         <v>227.6070464960621</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.791569677468799</v>
+        <v>-1.791570156152235</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9849529887355458</v>
+        <v>-0.9849529173188165</v>
       </c>
       <c r="I3" t="n">
-        <v>1.609449805974866</v>
+        <v>1.609449759683265</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01900866053909049</v>
+        <v>-0.01900866033944905</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.008720365744904679</v>
+        <v>-0.008720365856682726</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5024961244170595</v>
+        <v>0.5024961242564834</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05552793800956703</v>
+        <v>-0.05552793786803338</v>
       </c>
       <c r="N3" t="n">
         <v>49.09750566893424</v>
@@ -686,13 +686,13 @@
         <v>2.00303759165813</v>
       </c>
       <c r="U3" t="n">
-        <v>1.791569677468799</v>
+        <v>1.791570156152235</v>
       </c>
       <c r="V3" t="n">
         <v>227.6070464960621</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9438884412348</v>
+        <v>1.943888400983594</v>
       </c>
       <c r="X3" t="n">
         <v>882</v>
@@ -718,25 +718,25 @@
         <v>349.7544282031236</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.749868662676343</v>
+        <v>-3.749868828400492</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.20872782298752</v>
+        <v>-1.208727576024678</v>
       </c>
       <c r="I4" t="n">
-        <v>1.952223244906497</v>
+        <v>1.952223306106798</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005770434234611398</v>
+        <v>-0.005770434437250377</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0322429580329103</v>
+        <v>-0.03224295803903347</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4793904058431832</v>
+        <v>0.4793904056754141</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02738614312529752</v>
+        <v>0.02738614346985627</v>
       </c>
       <c r="N4" t="n">
         <v>45.57201646090535</v>
@@ -760,13 +760,13 @@
         <v>2.050100256992208</v>
       </c>
       <c r="U4" t="n">
-        <v>3.749868662676343</v>
+        <v>3.749868828400492</v>
       </c>
       <c r="V4" t="n">
         <v>349.7544282031236</v>
       </c>
       <c r="W4" t="n">
-        <v>2.366232987399303</v>
+        <v>2.366232835279769</v>
       </c>
       <c r="X4" t="n">
         <v>972</v>
@@ -792,25 +792,25 @@
         <v>451.0693662840987</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.343554795312453</v>
+        <v>-6.343554623109497</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.223445649704762</v>
+        <v>-1.223444822548321</v>
       </c>
       <c r="I5" t="n">
-        <v>1.996049954416544</v>
+        <v>1.996049601352026</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1102005004498754</v>
+        <v>-0.1102005008754919</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.07832623755942014</v>
+        <v>-0.07832623711343489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5039123771897682</v>
+        <v>0.5039123770650521</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4192870813504559</v>
+        <v>0.4192870828760363</v>
       </c>
       <c r="N5" t="n">
         <v>29.23913043478261</v>
@@ -834,13 +834,13 @@
         <v>2.164959633978539</v>
       </c>
       <c r="U5" t="n">
-        <v>6.343554795312453</v>
+        <v>6.343554623109497</v>
       </c>
       <c r="V5" t="n">
         <v>451.0693662840987</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4163950329765</v>
+        <v>2.416394404001557</v>
       </c>
       <c r="X5" t="n">
         <v>230</v>
